--- a/1.Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
+++ b/1.Database Design/JAVA 19 20 - Quyen Phan - Database Design.xlsx
@@ -8948,7 +8948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="60" zoomScaleNormal="43" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
